--- a/excel_data/2020-11-28.xlsx
+++ b/excel_data/2020-11-28.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="141">
   <si>
     <t>Position</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>TSLA</t>
-  </si>
-  <si>
-    <t>UPS</t>
   </si>
   <si>
     <t>UUP</t>
@@ -527,15 +524,15 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$A$123</c:f>
+              <c:f>Sheet1!$B$2:$A$122</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$123</c:f>
+              <c:f>Sheet1!$C$2:$C$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="122"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -690,10 +687,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>5</c:v>
@@ -765,7 +762,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1</c:v>
@@ -876,30 +873,27 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="115">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="120">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="121">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1446,7 +1440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1479,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1490,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1501,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1512,7 +1506,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1523,7 +1517,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1534,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1545,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -1556,7 +1550,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1567,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1578,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1589,7 +1583,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1600,7 +1594,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1609,7 +1603,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1620,7 +1614,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1631,7 +1625,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1642,7 +1636,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1653,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1664,7 +1658,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1675,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1686,7 +1680,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1697,7 +1691,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1708,7 +1702,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1719,7 +1713,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1730,7 +1724,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1741,7 +1735,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1752,7 +1746,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1763,7 +1757,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1774,7 +1768,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1785,7 +1779,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1796,7 +1790,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1807,7 +1801,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1818,7 +1812,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1829,7 +1823,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1840,7 +1834,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1851,7 +1845,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1862,7 +1856,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1873,7 +1867,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1884,7 +1878,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1893,7 +1887,7 @@
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1904,7 +1898,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1915,7 +1909,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1926,7 +1920,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1937,7 +1931,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45">
         <v>26</v>
@@ -1946,7 +1940,7 @@
     <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1957,7 +1951,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1968,7 +1962,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1979,7 +1973,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1990,7 +1984,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -2001,7 +1995,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2012,7 +2006,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2023,19 +2017,19 @@
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2043,7 +2037,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -2054,7 +2048,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56">
         <v>16</v>
@@ -2063,7 +2057,7 @@
     <row r="57" spans="1:3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2074,7 +2068,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2085,7 +2079,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2096,7 +2090,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2107,7 +2101,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2118,7 +2112,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2129,7 +2123,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2140,7 +2134,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2151,7 +2145,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2162,7 +2156,7 @@
         <v>61</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2173,7 +2167,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2184,7 +2178,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2195,7 +2189,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2206,7 +2200,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2217,7 +2211,7 @@
         <v>66</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -2228,7 +2222,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -2239,7 +2233,7 @@
         <v>68</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2250,7 +2244,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2261,7 +2255,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2272,7 +2266,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -2283,7 +2277,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C77">
         <v>38</v>
@@ -2292,10 +2286,10 @@
     <row r="78" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2303,7 +2297,7 @@
         <v>73</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2314,7 +2308,7 @@
         <v>74</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2325,7 +2319,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2336,7 +2330,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82">
         <v>94</v>
@@ -2345,7 +2339,7 @@
     <row r="83" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83">
         <v>15</v>
@@ -2356,7 +2350,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2367,7 +2361,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2378,7 +2372,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -2389,7 +2383,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -2400,7 +2394,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -2411,7 +2405,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -2422,7 +2416,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2433,7 +2427,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -2444,7 +2438,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -2455,7 +2449,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2466,7 +2460,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -2477,7 +2471,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2488,7 +2482,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2499,7 +2493,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2510,7 +2504,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2521,7 +2515,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -2532,7 +2526,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2543,7 +2537,7 @@
         <v>94</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2554,7 +2548,7 @@
         <v>95</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102">
         <v>7</v>
@@ -2563,7 +2557,7 @@
     <row r="103" spans="1:3">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103">
         <v>8</v>
@@ -2574,7 +2568,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2585,7 +2579,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2596,7 +2590,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2607,7 +2601,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2618,7 +2612,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2629,7 +2623,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2638,7 +2632,7 @@
     <row r="110" spans="1:3">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2649,7 +2643,7 @@
         <v>102</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2660,7 +2654,7 @@
         <v>103</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2671,7 +2665,7 @@
         <v>104</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2682,7 +2676,7 @@
         <v>105</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -2693,10 +2687,10 @@
         <v>106</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2707,7 +2701,7 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2715,7 +2709,7 @@
         <v>108</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -2726,7 +2720,7 @@
         <v>109</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -2737,7 +2731,7 @@
         <v>110</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -2748,7 +2742,7 @@
         <v>111</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -2759,29 +2753,18 @@
         <v>112</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C123">
         <v>2</v>
       </c>
     </row>
@@ -2796,7 +2779,7 @@
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A121:A122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2827,7 +2810,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2838,7 +2821,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2849,7 +2832,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2858,7 +2841,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2869,7 +2852,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2880,7 +2863,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2889,7 +2872,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2898,7 +2881,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2909,7 +2892,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2917,10 +2900,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2928,10 +2911,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2942,7 +2925,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2953,7 +2936,7 @@
         <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2962,7 +2945,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2971,7 +2954,7 @@
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2980,7 +2963,7 @@
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2989,7 +2972,7 @@
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2998,7 +2981,7 @@
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3007,7 +2990,7 @@
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3016,7 +2999,7 @@
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3025,7 +3008,7 @@
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -3033,10 +3016,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3044,10 +3027,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24">
         <v>1</v>
